--- a/FC_tables/Species.xlsx
+++ b/FC_tables/Species.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silver_Wolf\Documents\Rcourses\Fantacy_Craft\FC_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88625E2-6F0A-4A54-9882-38719488BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C09FE-9826-4357-88CB-799B3A75B602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,11 +838,14 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.85546875" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" customWidth="1"/>
     <col min="17" max="17" width="21.140625" customWidth="1"/>
@@ -1161,7 +1164,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1309,7 +1312,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1605,7 +1608,7 @@
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>0</v>

--- a/FC_tables/Species.xlsx
+++ b/FC_tables/Species.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silver_Wolf\Documents\Rcourses\Fantacy_Craft\FC_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C09FE-9826-4357-88CB-799B3A75B602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82C339F-2C04-4838-BC3A-417E1E3BF790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="137">
   <si>
     <t>Species</t>
   </si>
@@ -36,30 +36,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Attr_1</t>
-  </si>
-  <si>
-    <t>Att_Score_1</t>
-  </si>
-  <si>
-    <t>Attr_2</t>
-  </si>
-  <si>
-    <t>Att_Score_2</t>
-  </si>
-  <si>
-    <t>Attr_3</t>
-  </si>
-  <si>
-    <t>Att_Score_3</t>
-  </si>
-  <si>
-    <t>Attr_4</t>
-  </si>
-  <si>
-    <t>Att_Score_4</t>
-  </si>
-  <si>
     <t>Wounds</t>
   </si>
   <si>
@@ -108,9 +84,6 @@
     <t>Beast</t>
   </si>
   <si>
-    <t>Str_Int</t>
-  </si>
-  <si>
     <t>Dex</t>
   </si>
   <si>
@@ -303,9 +276,6 @@
     <t>Saurian</t>
   </si>
   <si>
-    <t>Any</t>
-  </si>
-  <si>
     <t>Tail_Slap_I</t>
   </si>
   <si>
@@ -324,9 +294,6 @@
     <t>Avian</t>
   </si>
   <si>
-    <t>Cha_Str</t>
-  </si>
-  <si>
     <t>Acrobatic_Original</t>
   </si>
   <si>
@@ -348,12 +315,6 @@
     <t>Ooze</t>
   </si>
   <si>
-    <t>Str_Dex_Con</t>
-  </si>
-  <si>
-    <t>Int_Cha</t>
-  </si>
-  <si>
     <t>Great_Fortitude</t>
   </si>
   <si>
@@ -363,12 +324,6 @@
     <t>Large(1x2)</t>
   </si>
   <si>
-    <t>Str_Con</t>
-  </si>
-  <si>
-    <t>Int_Wis</t>
-  </si>
-  <si>
     <t>Fatal_Falls</t>
   </si>
   <si>
@@ -414,9 +369,6 @@
     <t>Nymph</t>
   </si>
   <si>
-    <t>Con_Str</t>
-  </si>
-  <si>
     <t>Beguiling</t>
   </si>
   <si>
@@ -435,9 +387,6 @@
     <t>Unicorn</t>
   </si>
   <si>
-    <t>Dex_Wis</t>
-  </si>
-  <si>
     <t>Alicorn_Horn</t>
   </si>
   <si>
@@ -477,13 +426,16 @@
     <t>Diminutive</t>
   </si>
   <si>
-    <t>Dex_Cha</t>
-  </si>
-  <si>
     <t>Con*1/3</t>
   </si>
   <si>
     <t>Heroism</t>
+  </si>
+  <si>
+    <t>Any_1</t>
+  </si>
+  <si>
+    <t>Any_2</t>
   </si>
 </sst>
 </file>
@@ -838,23 +790,27 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="22" width="24.140625" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" customWidth="1"/>
+    <col min="28" max="28" width="17.5703125" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+    <col min="30" max="30" width="24.140625" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -868,105 +824,105 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
       <c r="E2">
+        <v>-2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2">
-        <v>-2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -975,72 +931,72 @@
         <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>-2</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3">
-        <v>-2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1049,72 +1005,72 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4">
-        <v>-2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>29</v>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1123,72 +1079,72 @@
         <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>29</v>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>29</v>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -1197,72 +1153,72 @@
         <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>-2</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1271,72 +1227,72 @@
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>29</v>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1345,72 +1301,72 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
+        <v>-2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8">
         <v>-2</v>
       </c>
-      <c r="J8" t="s">
-        <v>64</v>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1419,72 +1375,72 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
+        <v>-3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>-3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1493,72 +1449,72 @@
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>29</v>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>29</v>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>29</v>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1567,72 +1523,72 @@
         <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>29</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
-        <v>29</v>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
-        <v>29</v>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1641,72 +1597,72 @@
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
-        <v>92</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>-2</v>
       </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1715,72 +1671,72 @@
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="S12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-4</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13">
-        <v>-4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1789,72 +1745,72 @@
         <v>20</v>
       </c>
       <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s">
         <v>86</v>
       </c>
-      <c r="P13" t="s">
-        <v>96</v>
-      </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>-2</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>99</v>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>-2</v>
       </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1863,72 +1819,72 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Q14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="R14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="S14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="T14" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="V14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="W14" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="X14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>108</v>
+      <c r="F15">
+        <v>2</v>
       </c>
       <c r="G15">
         <v>-2</v>
       </c>
-      <c r="H15" t="s">
-        <v>29</v>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
+        <v>-2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1937,72 +1893,72 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>109</v>
-      </c>
-      <c r="R15" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" t="s">
-        <v>60</v>
-      </c>
       <c r="V15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
       </c>
       <c r="G16">
         <v>-2</v>
       </c>
-      <c r="H16" t="s">
-        <v>29</v>
+      <c r="H16">
+        <v>-2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>29</v>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2011,72 +1967,72 @@
         <v>50</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="Q16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
-        <v>29</v>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>29</v>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>29</v>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2085,72 +2041,72 @@
         <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q17" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="R17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
         <v>46</v>
       </c>
-      <c r="T17" t="s">
-        <v>55</v>
-      </c>
       <c r="U17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
-        <v>50</v>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>-2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
       </c>
       <c r="I18">
         <v>-2</v>
       </c>
-      <c r="J18" t="s">
-        <v>29</v>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2159,72 +2115,72 @@
         <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="Q18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="R18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="S18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T18" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="U18" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="V18" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="W18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>-3</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>-3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19">
-        <v>-3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2233,72 +2189,72 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q19" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="R19" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="S19" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="T19" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
-        <v>41</v>
+      <c r="F20">
+        <v>-2</v>
       </c>
       <c r="G20">
-        <v>-2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>29</v>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2307,72 +2263,72 @@
         <v>40</v>
       </c>
       <c r="O20" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="S20" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="T20" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="W20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>136</v>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>92</v>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>-2</v>
       </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2381,72 +2337,72 @@
         <v>40</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R21" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="S21" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="T21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
-        <v>73</v>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>-2</v>
       </c>
-      <c r="H22" t="s">
-        <v>29</v>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
-        <v>29</v>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2455,72 +2411,72 @@
         <v>40</v>
       </c>
       <c r="O22" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="P22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="R22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S22" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="T22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
-        <v>50</v>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>-2</v>
       </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2529,34 +2485,34 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="Q23" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="R23" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="S23" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="V23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="W23" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X23" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
